--- a/excels/clean/camp_route_south_python.xlsx
+++ b/excels/clean/camp_route_south_python.xlsx
@@ -4742,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5166,309 +5166,309 @@
     </row>
     <row r="2" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1">
-        <v>19461</v>
+        <v>19104</v>
       </c>
       <c r="D2">
-        <v>5450</v>
+        <v>5050</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19109</v>
+      </c>
+      <c r="F2">
+        <v>5250</v>
       </c>
       <c r="G2" s="1">
-        <v>19464</v>
+        <v>19112</v>
       </c>
       <c r="H2">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="I2" s="1">
-        <v>19471</v>
+        <v>19120</v>
       </c>
       <c r="J2">
-        <v>6150</v>
+        <v>6000</v>
       </c>
       <c r="K2" s="1">
-        <v>19480</v>
+        <v>19124</v>
       </c>
       <c r="L2">
-        <v>6460</v>
+        <v>6450</v>
       </c>
       <c r="M2" s="1">
-        <v>19482</v>
+        <v>19128</v>
       </c>
       <c r="N2">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="O2" s="1">
-        <v>19483</v>
+        <v>19140</v>
+      </c>
+      <c r="P2">
+        <v>7950</v>
       </c>
       <c r="Q2" s="1">
-        <v>19496</v>
+        <v>19141</v>
       </c>
       <c r="R2">
-        <v>7315</v>
-      </c>
-      <c r="S2" s="1">
-        <v>19501</v>
-      </c>
-      <c r="T2">
-        <v>7950</v>
-      </c>
-      <c r="U2" s="3">
-        <v>19508</v>
+        <v>8390</v>
+      </c>
+      <c r="V2" s="1">
+        <v>19139</v>
+      </c>
+      <c r="W2">
+        <v>7880</v>
+      </c>
+      <c r="X2" s="1">
+        <v>19142</v>
+      </c>
+      <c r="Y2">
+        <v>8600</v>
       </c>
     </row>
     <row r="3" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1">
-        <v>20552</v>
+        <v>19274</v>
       </c>
       <c r="D3">
-        <v>5450</v>
+        <v>5050</v>
       </c>
       <c r="E3" s="1">
-        <v>20556</v>
+        <v>19275</v>
       </c>
       <c r="F3">
-        <v>5800</v>
+        <v>5250</v>
       </c>
       <c r="G3" s="1">
-        <v>20558</v>
+        <v>19277</v>
       </c>
       <c r="H3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="I3" s="1">
-        <v>20563</v>
-      </c>
-      <c r="J3">
-        <v>6500</v>
+        <v>18994</v>
       </c>
       <c r="K3" s="1">
-        <v>20576</v>
-      </c>
-      <c r="L3">
-        <v>6950</v>
+        <v>18994</v>
+      </c>
+      <c r="M3" s="1">
+        <v>19293</v>
+      </c>
+      <c r="N3">
+        <v>6900</v>
+      </c>
+      <c r="O3" s="1">
+        <v>19302</v>
+      </c>
+      <c r="P3">
+        <v>7100</v>
       </c>
       <c r="Q3" s="1">
-        <v>20597</v>
+        <v>19312</v>
       </c>
       <c r="R3">
-        <v>8400</v>
-      </c>
-      <c r="U3" s="3">
-        <v>20598</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>20581</v>
-      </c>
-      <c r="AA3">
         <v>7500</v>
       </c>
-      <c r="AB3" s="1">
-        <v>20595</v>
-      </c>
-      <c r="AC3">
-        <v>8000</v>
+      <c r="S3" s="1">
+        <v>19317</v>
+      </c>
+      <c r="T3">
+        <v>7880</v>
+      </c>
+      <c r="X3" s="1">
+        <v>19318</v>
+      </c>
+      <c r="Y3">
+        <v>8100</v>
       </c>
     </row>
     <row r="4" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1">
-        <v>22011</v>
+        <v>19461</v>
       </c>
       <c r="D4">
         <v>5450</v>
       </c>
-      <c r="E4" s="1">
-        <v>22016</v>
-      </c>
-      <c r="F4">
-        <v>5850</v>
-      </c>
       <c r="G4" s="1">
-        <v>22021</v>
+        <v>19464</v>
       </c>
       <c r="H4">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="I4" s="1">
-        <v>22023</v>
+        <v>19471</v>
       </c>
       <c r="J4">
+        <v>6150</v>
+      </c>
+      <c r="K4" s="1">
+        <v>19480</v>
+      </c>
+      <c r="L4">
         <v>6460</v>
       </c>
-      <c r="K4" s="1">
-        <v>22025</v>
-      </c>
-      <c r="L4">
+      <c r="M4" s="1">
+        <v>19482</v>
+      </c>
+      <c r="N4">
         <v>6700</v>
       </c>
-      <c r="M4" s="1">
-        <v>22038</v>
-      </c>
-      <c r="N4">
-        <v>7300</v>
-      </c>
       <c r="O4" s="1">
-        <v>22045</v>
-      </c>
-      <c r="P4">
+        <v>19483</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>19496</v>
+      </c>
+      <c r="R4">
+        <v>7315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>19501</v>
+      </c>
+      <c r="T4">
         <v>7950</v>
       </c>
-      <c r="Q4" s="1">
-        <v>22060</v>
-      </c>
-      <c r="R4">
-        <v>8400</v>
-      </c>
-      <c r="X4" s="1">
-        <v>22061</v>
-      </c>
-      <c r="Y4">
-        <v>8625</v>
+      <c r="U4" s="3">
+        <v>19508</v>
       </c>
     </row>
     <row r="5" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1">
-        <v>19274</v>
+        <v>20552</v>
       </c>
       <c r="D5">
-        <v>5050</v>
+        <v>5450</v>
       </c>
       <c r="E5" s="1">
-        <v>19275</v>
+        <v>20556</v>
       </c>
       <c r="F5">
-        <v>5250</v>
+        <v>5800</v>
       </c>
       <c r="G5" s="1">
-        <v>19277</v>
+        <v>20558</v>
       </c>
       <c r="H5">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="I5" s="1">
-        <v>18994</v>
+        <v>20563</v>
+      </c>
+      <c r="J5">
+        <v>6500</v>
       </c>
       <c r="K5" s="1">
-        <v>18994</v>
-      </c>
-      <c r="M5" s="1">
-        <v>19293</v>
-      </c>
-      <c r="N5">
-        <v>6900</v>
-      </c>
-      <c r="O5" s="1">
-        <v>19302</v>
-      </c>
-      <c r="P5">
-        <v>7100</v>
+        <v>20576</v>
+      </c>
+      <c r="L5">
+        <v>6950</v>
       </c>
       <c r="Q5" s="1">
-        <v>19312</v>
+        <v>20597</v>
       </c>
       <c r="R5">
+        <v>8400</v>
+      </c>
+      <c r="U5" s="3">
+        <v>20598</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>20581</v>
+      </c>
+      <c r="AA5">
         <v>7500</v>
       </c>
-      <c r="S5" s="1">
-        <v>19317</v>
-      </c>
-      <c r="T5">
-        <v>7880</v>
-      </c>
-      <c r="X5" s="1">
-        <v>19318</v>
-      </c>
-      <c r="Y5">
-        <v>8100</v>
+      <c r="AB5" s="1">
+        <v>20595</v>
+      </c>
+      <c r="AC5">
+        <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1">
-        <v>19104</v>
+        <v>22011</v>
       </c>
       <c r="D6">
-        <v>5050</v>
+        <v>5450</v>
       </c>
       <c r="E6" s="1">
-        <v>19109</v>
+        <v>22016</v>
       </c>
       <c r="F6">
-        <v>5250</v>
+        <v>5850</v>
       </c>
       <c r="G6" s="1">
-        <v>19112</v>
+        <v>22021</v>
       </c>
       <c r="H6">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="I6" s="1">
-        <v>19120</v>
+        <v>22023</v>
       </c>
       <c r="J6">
-        <v>6000</v>
+        <v>6460</v>
       </c>
       <c r="K6" s="1">
-        <v>19124</v>
+        <v>22025</v>
       </c>
       <c r="L6">
-        <v>6450</v>
+        <v>6700</v>
       </c>
       <c r="M6" s="1">
-        <v>19128</v>
+        <v>22038</v>
       </c>
       <c r="N6">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="O6" s="1">
-        <v>19140</v>
+        <v>22045</v>
       </c>
       <c r="P6">
         <v>7950</v>
       </c>
       <c r="Q6" s="1">
-        <v>19141</v>
+        <v>22060</v>
       </c>
       <c r="R6">
-        <v>8390</v>
-      </c>
-      <c r="V6" s="1">
-        <v>19139</v>
-      </c>
-      <c r="W6">
-        <v>7880</v>
+        <v>8400</v>
       </c>
       <c r="X6" s="1">
-        <v>19142</v>
+        <v>22061</v>
       </c>
       <c r="Y6">
-        <v>8600</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="7" spans="1:132" x14ac:dyDescent="0.4">
@@ -5727,431 +5727,431 @@
     </row>
     <row r="11" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1">
-        <v>26744</v>
-      </c>
-      <c r="D11">
-        <v>5400</v>
+        <v>26190</v>
       </c>
       <c r="E11" s="1">
-        <v>26750</v>
+        <v>26193</v>
       </c>
       <c r="F11">
-        <v>6150</v>
+        <v>6065</v>
       </c>
       <c r="G11" s="1">
-        <v>26754</v>
+        <v>26195</v>
       </c>
       <c r="H11">
         <v>6450</v>
       </c>
       <c r="I11" s="1">
-        <v>26765</v>
+        <v>26197</v>
       </c>
       <c r="J11">
-        <v>7000</v>
+        <v>6950</v>
       </c>
       <c r="K11" s="1">
-        <v>26783</v>
-      </c>
-      <c r="L11">
-        <v>7500</v>
+        <v>25934</v>
       </c>
       <c r="M11" s="1">
-        <v>26784</v>
+        <v>26234</v>
       </c>
       <c r="N11">
-        <v>7985</v>
-      </c>
-      <c r="O11" s="1">
-        <v>26788</v>
-      </c>
-      <c r="P11">
-        <v>8515</v>
-      </c>
-      <c r="U11" s="3">
-        <v>26665</v>
+        <v>7950</v>
+      </c>
+      <c r="X11" s="1">
+        <v>26236</v>
+      </c>
+      <c r="Y11">
+        <v>8100</v>
       </c>
     </row>
     <row r="12" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="1">
-        <v>27113</v>
+        <v>26744</v>
       </c>
       <c r="D12">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="E12" s="1">
-        <v>27122</v>
+        <v>26750</v>
       </c>
       <c r="F12">
-        <v>6100</v>
+        <v>6150</v>
       </c>
       <c r="G12" s="1">
-        <v>27125</v>
+        <v>26754</v>
       </c>
       <c r="H12">
-        <v>6440</v>
+        <v>6450</v>
+      </c>
+      <c r="I12" s="1">
+        <v>26765</v>
+      </c>
+      <c r="J12">
+        <v>7000</v>
       </c>
       <c r="K12" s="1">
-        <v>27141</v>
+        <v>26783</v>
       </c>
       <c r="L12">
-        <v>7450</v>
+        <v>7500</v>
       </c>
       <c r="M12" s="1">
-        <v>27153</v>
+        <v>26784</v>
       </c>
       <c r="N12">
-        <v>7600</v>
+        <v>7985</v>
       </c>
       <c r="O12" s="1">
-        <v>27161</v>
+        <v>26788</v>
       </c>
       <c r="P12">
-        <v>8530</v>
-      </c>
-      <c r="X12" s="1">
-        <v>27161</v>
-      </c>
-      <c r="Y12">
-        <v>8530</v>
+        <v>8515</v>
+      </c>
+      <c r="U12" s="3">
+        <v>26665</v>
       </c>
     </row>
     <row r="13" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1">
-        <v>27469</v>
+        <v>26901</v>
       </c>
       <c r="D13">
-        <v>5300</v>
+        <v>5440</v>
       </c>
       <c r="E13" s="1">
-        <v>27487</v>
+        <v>26911</v>
       </c>
       <c r="F13">
-        <v>6050</v>
+        <v>6100</v>
       </c>
       <c r="G13" s="1">
-        <v>27492</v>
+        <v>26916</v>
       </c>
       <c r="H13">
-        <v>6400</v>
-      </c>
-      <c r="I13" s="1">
-        <v>27498</v>
-      </c>
-      <c r="J13">
-        <v>6900</v>
-      </c>
-      <c r="K13" s="1">
-        <v>27511</v>
-      </c>
-      <c r="L13">
-        <v>7600</v>
-      </c>
-      <c r="M13" s="1">
-        <v>27528</v>
-      </c>
-      <c r="N13">
-        <v>7985</v>
-      </c>
-      <c r="O13" s="1">
-        <v>27529</v>
-      </c>
-      <c r="P13">
-        <v>8500</v>
+        <v>6700</v>
       </c>
       <c r="U13" s="3">
-        <v>27530</v>
+        <v>26963</v>
+      </c>
+      <c r="V13" s="1">
+        <v>26963</v>
+      </c>
+      <c r="W13">
+        <v>8600</v>
+      </c>
+      <c r="X13" s="1">
+        <v>26963</v>
+      </c>
+      <c r="Y13">
+        <v>8380</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>26955</v>
+      </c>
+      <c r="AP13">
+        <v>7450</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>26962</v>
+      </c>
+      <c r="AR13">
+        <v>8000</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>26925</v>
+      </c>
+      <c r="AT13">
+        <v>7000</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>26933</v>
+      </c>
+      <c r="AV13">
+        <v>7500</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>26944</v>
+      </c>
+      <c r="AX13">
+        <v>8000</v>
       </c>
     </row>
     <row r="14" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="1">
-        <v>27843</v>
+        <v>27113</v>
       </c>
       <c r="D14">
-        <v>5425</v>
+        <v>5380</v>
       </c>
       <c r="E14" s="1">
-        <v>27853</v>
+        <v>27122</v>
       </c>
       <c r="F14">
-        <v>5950</v>
+        <v>6100</v>
       </c>
       <c r="G14" s="1">
-        <v>27859</v>
+        <v>27125</v>
       </c>
       <c r="H14">
-        <v>6650</v>
-      </c>
-      <c r="I14" s="1">
-        <v>27871</v>
-      </c>
-      <c r="J14">
-        <v>6950</v>
+        <v>6440</v>
       </c>
       <c r="K14" s="1">
-        <v>27880</v>
+        <v>27141</v>
       </c>
       <c r="L14">
-        <v>7620</v>
+        <v>7450</v>
       </c>
       <c r="M14" s="1">
-        <v>27892</v>
+        <v>27153</v>
       </c>
       <c r="N14">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="O14" s="1">
-        <v>27894</v>
+        <v>27161</v>
       </c>
       <c r="P14">
-        <v>8380</v>
-      </c>
-      <c r="U14" s="3">
-        <v>27896</v>
+        <v>8530</v>
+      </c>
+      <c r="X14" s="1">
+        <v>27161</v>
+      </c>
+      <c r="Y14">
+        <v>8530</v>
       </c>
     </row>
     <row r="15" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1">
-        <v>27998</v>
+        <v>27469</v>
+      </c>
+      <c r="D15">
+        <v>5300</v>
       </c>
       <c r="E15" s="1">
-        <v>28005</v>
+        <v>27487</v>
       </c>
       <c r="F15">
-        <v>5900</v>
+        <v>6050</v>
       </c>
       <c r="G15" s="1">
-        <v>28011</v>
+        <v>27492</v>
       </c>
       <c r="H15">
-        <v>6480</v>
+        <v>6400</v>
       </c>
       <c r="I15" s="1">
-        <v>28013</v>
+        <v>27498</v>
       </c>
       <c r="J15">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K15" s="1">
-        <v>28028</v>
+        <v>27511</v>
       </c>
       <c r="L15">
-        <v>7470</v>
+        <v>7600</v>
       </c>
       <c r="M15" s="1">
-        <v>28034</v>
+        <v>27528</v>
       </c>
       <c r="N15">
         <v>7985</v>
       </c>
       <c r="O15" s="1">
-        <v>28040</v>
+        <v>27529</v>
       </c>
       <c r="P15">
-        <v>8380</v>
+        <v>8500</v>
       </c>
       <c r="U15" s="3">
-        <v>28041</v>
+        <v>27530</v>
       </c>
     </row>
     <row r="16" spans="1:132" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1">
-        <v>28198</v>
+        <v>27843</v>
       </c>
       <c r="D16">
-        <v>5400</v>
+        <v>5425</v>
       </c>
       <c r="E16" s="1">
-        <v>28203</v>
+        <v>27853</v>
       </c>
       <c r="F16">
-        <v>5880</v>
+        <v>5950</v>
       </c>
       <c r="G16" s="1">
-        <v>28213</v>
+        <v>27859</v>
       </c>
       <c r="H16">
-        <v>6160</v>
+        <v>6650</v>
       </c>
       <c r="I16" s="1">
-        <v>28220</v>
+        <v>27871</v>
       </c>
       <c r="J16">
-        <v>6580</v>
+        <v>6950</v>
       </c>
       <c r="K16" s="1">
-        <v>28235</v>
+        <v>27880</v>
       </c>
       <c r="L16">
-        <v>6740</v>
+        <v>7620</v>
       </c>
       <c r="M16" s="1">
-        <v>28240</v>
+        <v>27892</v>
       </c>
       <c r="N16">
-        <v>7560</v>
+        <v>8000</v>
       </c>
       <c r="O16" s="1">
-        <v>28241</v>
+        <v>27894</v>
       </c>
       <c r="P16">
-        <v>7980</v>
-      </c>
-      <c r="X16" s="1">
-        <v>28259</v>
-      </c>
-      <c r="Y16">
-        <v>8000</v>
+        <v>8380</v>
+      </c>
+      <c r="U16" s="3">
+        <v>27896</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1">
-        <v>26190</v>
+        <v>27998</v>
       </c>
       <c r="E17" s="1">
-        <v>26193</v>
+        <v>28005</v>
       </c>
       <c r="F17">
-        <v>6065</v>
+        <v>5900</v>
       </c>
       <c r="G17" s="1">
-        <v>26195</v>
+        <v>28011</v>
       </c>
       <c r="H17">
-        <v>6450</v>
+        <v>6480</v>
       </c>
       <c r="I17" s="1">
-        <v>26197</v>
+        <v>28013</v>
       </c>
       <c r="J17">
-        <v>6950</v>
+        <v>7000</v>
       </c>
       <c r="K17" s="1">
-        <v>25934</v>
+        <v>28028</v>
+      </c>
+      <c r="L17">
+        <v>7470</v>
       </c>
       <c r="M17" s="1">
-        <v>26234</v>
+        <v>28034</v>
       </c>
       <c r="N17">
-        <v>7950</v>
-      </c>
-      <c r="X17" s="1">
-        <v>26236</v>
-      </c>
-      <c r="Y17">
-        <v>8100</v>
+        <v>7985</v>
+      </c>
+      <c r="O17" s="1">
+        <v>28040</v>
+      </c>
+      <c r="P17">
+        <v>8380</v>
+      </c>
+      <c r="U17" s="3">
+        <v>28041</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C18" s="1">
-        <v>26901</v>
+        <v>28198</v>
       </c>
       <c r="D18">
-        <v>5440</v>
+        <v>5400</v>
       </c>
       <c r="E18" s="1">
-        <v>26911</v>
+        <v>28203</v>
       </c>
       <c r="F18">
-        <v>6100</v>
+        <v>5880</v>
       </c>
       <c r="G18" s="1">
-        <v>26916</v>
+        <v>28213</v>
       </c>
       <c r="H18">
-        <v>6700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>26963</v>
-      </c>
-      <c r="V18" s="1">
-        <v>26963</v>
-      </c>
-      <c r="W18">
-        <v>8600</v>
+        <v>6160</v>
+      </c>
+      <c r="I18" s="1">
+        <v>28220</v>
+      </c>
+      <c r="J18">
+        <v>6580</v>
+      </c>
+      <c r="K18" s="1">
+        <v>28235</v>
+      </c>
+      <c r="L18">
+        <v>6740</v>
+      </c>
+      <c r="M18" s="1">
+        <v>28240</v>
+      </c>
+      <c r="N18">
+        <v>7560</v>
+      </c>
+      <c r="O18" s="1">
+        <v>28241</v>
+      </c>
+      <c r="P18">
+        <v>7980</v>
       </c>
       <c r="X18" s="1">
-        <v>26963</v>
+        <v>28259</v>
       </c>
       <c r="Y18">
-        <v>8380</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>26955</v>
-      </c>
-      <c r="AP18">
-        <v>7450</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>26962</v>
-      </c>
-      <c r="AR18">
-        <v>8000</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>26925</v>
-      </c>
-      <c r="AT18">
-        <v>7000</v>
-      </c>
-      <c r="AU18" s="1">
-        <v>26933</v>
-      </c>
-      <c r="AV18">
-        <v>7500</v>
-      </c>
-      <c r="AW18" s="1">
-        <v>26944</v>
-      </c>
-      <c r="AX18">
         <v>8000</v>
       </c>
     </row>
@@ -45244,6 +45244,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:EB1133">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
